--- a/Gant Chart.xlsx
+++ b/Gant Chart.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>ITEM</t>
   </si>
@@ -80,13 +80,16 @@
   </si>
   <si>
     <t>Create software to control loom</t>
+  </si>
+  <si>
+    <t>Create evaluation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,8 +97,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF99FF99"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,6 +136,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -139,13 +155,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -154,11 +174,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF99FF99"/>
+      <color rgb="FF66CCFF"/>
       <color rgb="FFFFCCCC"/>
-      <color rgb="FF99FF99"/>
       <color rgb="FF9933FF"/>
       <color rgb="FFFFCC00"/>
-      <color rgb="FF66CCFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -459,11 +479,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z22"/>
+  <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G19" sqref="G19"/>
+      <selection pane="topRight" activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,76 +643,121 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L17" s="8"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="U20" s="3"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Gant Chart.xlsx
+++ b/Gant Chart.xlsx
@@ -481,9 +481,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X29" sqref="X29"/>
+      <selection pane="topRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,6 +756,12 @@
       <c r="A23" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
     </row>
